--- a/Evaluation/1_PrivacyAnalysis/Scalability/Runtime_pa.xlsx
+++ b/Evaluation/1_PrivacyAnalysis/Scalability/Runtime_pa.xlsx
@@ -1416,6 +1416,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:trendline>
+            <c:name>Moving Mean (size 2) of Building Graph</c:name>
             <c:spPr>
               <a:ln w="38100" cap="rnd">
                 <a:solidFill>
@@ -1515,6 +1516,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:trendline>
+            <c:name>Moving Mean (size 2) of Component Classification</c:name>
             <c:spPr>
               <a:ln w="38100" cap="rnd">
                 <a:solidFill>
@@ -1614,6 +1616,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:trendline>
+            <c:name>Moving Mean (size 2) of Deployment Analysis</c:name>
             <c:spPr>
               <a:ln w="38100" cap="rnd">
                 <a:solidFill>
@@ -3477,8 +3480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
